--- a/src/main/resources/testFile2.xlsx
+++ b/src/main/resources/testFile2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>Ð/Ð</t>
   </si>
@@ -139,6 +139,48 @@
   </si>
   <si>
     <t>ë -1      ÷-1</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Մնացականյան Էդուարդ </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>eewr,werwer,</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Սահակյան Վալերի </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>sdfsd,dsfdsf,sd,111,</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Հակոբյան Արթուր </t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Մանուչարյան Կամո </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sas, sadsa, 12, </t>
   </si>
   <si>
     <t>Updated Value</t>
@@ -815,46 +857,58 @@
       <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>115362</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>12.0</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="19">
-        <v>273018</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="J6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="22">
-        <v>43025</v>
-      </c>
-      <c r="R6" s="19"/>
+      <c r="Q6" s="22" t="n">
+        <v>42640.0</v>
+      </c>
+      <c r="R6" s="19" t="n">
+        <v>42823.0</v>
+      </c>
       <c r="S6" s="4">
         <v>16</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
@@ -862,7 +916,7 @@
     <row customHeight="1" ht="15.95" r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>34</v>
@@ -891,31 +945,57 @@
       <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
-        <v>114414</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="17"/>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="G8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="Q8" s="19" t="n">
+        <v>42640.0</v>
+      </c>
+      <c r="R8" s="19" t="n">
+        <v>42823.0</v>
+      </c>
       <c r="S8" s="4">
         <v>16</v>
       </c>
-      <c r="T8" s="19"/>
+      <c r="T8" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
@@ -947,25 +1027,51 @@
       <c r="A10" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
-        <v>114415</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="Q10" s="19" t="n">
+        <v>42640.0</v>
+      </c>
+      <c r="R10" s="19" t="n">
+        <v>42823.0</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
@@ -999,27 +1105,55 @@
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="3">
-        <v>114111</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="Q12" s="19" t="n">
+        <v>42402.0</v>
+      </c>
+      <c r="R12" s="19" t="n">
+        <v>42585.0</v>
+      </c>
       <c r="S12" s="2"/>
-      <c r="T12" s="19"/>
+      <c r="T12" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
     </row>

--- a/src/main/resources/testFile2.xlsx
+++ b/src/main/resources/testFile2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>Ð/Ð</t>
   </si>
@@ -141,10 +141,13 @@
     <t>ë -1      ÷-1</t>
   </si>
   <si>
-    <t>000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Մնացականյան Էդուարդ </t>
+    <t>008477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Լուսավորիչ 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Մովսեսյան Կարինե </t>
   </si>
   <si>
     <t/>
@@ -153,34 +156,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>eewr,werwer,</t>
-  </si>
-  <si>
-    <t>000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Սահակյան Վալերի </t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>sdfsd,dsfdsf,sd,111,</t>
-  </si>
-  <si>
-    <t>000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Հակոբյան Արթուր </t>
-  </si>
-  <si>
-    <t>000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Մանուչարյան Կամո </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sas, sadsa, 12, </t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ս -null</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Մաշտոց 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Գրիգորյան Ասլան </t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>ս -1</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Հարությունյան Վագիֆ </t>
   </si>
   <si>
     <t>Updated Value</t>
@@ -860,56 +860,54 @@
       <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>12.0</v>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="N6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>42640.0</v>
+        <v>42646.0</v>
       </c>
       <c r="R6" s="19" t="n">
-        <v>42823.0</v>
+        <v>42829.0</v>
       </c>
       <c r="S6" s="4">
         <v>16</v>
       </c>
-      <c r="T6" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="T6" s="21"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
@@ -946,44 +944,48 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>12.0</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="G8" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="Q8" s="19" t="n">
         <v>42640.0</v>
       </c>
@@ -993,9 +995,7 @@
       <c r="S8" s="4">
         <v>16</v>
       </c>
-      <c r="T8" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="T8" s="19"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
@@ -1028,44 +1028,48 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>12.0</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="Q10" s="19" t="n">
         <v>42640.0</v>
       </c>
@@ -1105,55 +1109,27 @@
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="B12" s="3">
+        <v>114111</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="19" t="n">
-        <v>42402.0</v>
-      </c>
-      <c r="R12" s="19" t="n">
-        <v>42585.0</v>
-      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="T12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
     </row>

--- a/src/main/resources/testFile2.xlsx
+++ b/src/main/resources/testFile2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Ð/Ð</t>
   </si>
@@ -141,46 +141,37 @@
     <t>ë -1      ÷-1</t>
   </si>
   <si>
-    <t>008477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Լուսավորիչ 5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Մովսեսյան Կարինե </t>
+    <t>008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ազատամարտիկների 59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Աբրահամյան Աիդա </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ս - 0</t>
+  </si>
+  <si>
+    <t>008432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ալեքսանյան Մայոր </t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ս -null</t>
-  </si>
-  <si>
-    <t>000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Մաշտոց 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Գրիգորյան Ասլան </t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>ս -1</t>
-  </si>
-  <si>
-    <t>000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Հարությունյան Վագիֆ </t>
+    <t>008433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Սևյան Էրիկ </t>
   </si>
   <si>
     <t>Updated Value</t>
@@ -881,7 +872,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>44</v>
@@ -893,16 +884,16 @@
         <v>44</v>
       </c>
       <c r="O6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="Q6" s="22" t="n">
-        <v>42646.0</v>
+        <v>42611.0</v>
       </c>
       <c r="R6" s="19" t="n">
-        <v>42829.0</v>
+        <v>42794.0</v>
       </c>
       <c r="S6" s="4">
         <v>16</v>
@@ -914,7 +905,7 @@
     <row customHeight="1" ht="15.95" r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>34</v>
@@ -944,29 +935,27 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="F8" s="19"/>
       <c r="G8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>44</v>
@@ -984,13 +973,13 @@
         <v>44</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="19" t="n">
-        <v>42640.0</v>
+        <v>42192.0</v>
       </c>
       <c r="R8" s="19" t="n">
-        <v>42823.0</v>
+        <v>42375.0</v>
       </c>
       <c r="S8" s="4">
         <v>16</v>
@@ -1028,18 +1017,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
         <v>44</v>
       </c>
@@ -1047,19 +1034,19 @@
         <v>44</v>
       </c>
       <c r="I10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="K10" s="19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>44</v>
@@ -1068,13 +1055,13 @@
         <v>44</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="19" t="n">
-        <v>42640.0</v>
+        <v>42611.0</v>
       </c>
       <c r="R10" s="19" t="n">
-        <v>42823.0</v>
+        <v>42794.0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="19"/>

--- a/src/main/resources/testFile2.xlsx
+++ b/src/main/resources/testFile2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Ð/Ð</t>
   </si>
@@ -143,70 +143,28 @@
     <t xml:space="preserve"> ÷-1</t>
   </si>
   <si>
-    <t>008423</t>
+    <t>008433</t>
   </si>
   <si>
     <t xml:space="preserve">Ազատամարտիկների 59 </t>
   </si>
   <si>
-    <t xml:space="preserve">Աբրահամյան Աիդա </t>
-  </si>
-  <si>
-    <t>+</t>
+    <t xml:space="preserve">Սևյան Էրիկ </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>ս - 0</t>
   </si>
   <si>
-    <t xml:space="preserve">01, 02, 03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadsad, asd, asd, </t>
-  </si>
-  <si>
-    <t>004221579</t>
+    <t>004221804</t>
   </si>
   <si>
     <t>փ - 0</t>
-  </si>
-  <si>
-    <t>hhh,asdsad,asdsad,</t>
-  </si>
-  <si>
-    <t>008432</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ալեքսանյան Մայոր   </t>
-  </si>
-  <si>
-    <t>333-888</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>004221342</t>
-  </si>
-  <si>
-    <t>բ1</t>
-  </si>
-  <si>
-    <t>008433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Սևյան Էրիկ </t>
-  </si>
-  <si>
-    <t>004221804</t>
   </si>
 </sst>
 </file>
@@ -902,38 +860,36 @@
         <v>42</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="19" t="n">
         <v>42611.0</v>
@@ -942,60 +898,56 @@
         <v>42794.0</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="T6" s="17"/>
       <c r="U6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V6" s="15"/>
     </row>
     <row customHeight="1" ht="15.95" r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="5"/>
       <c r="F7" s="16"/>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
-      <c r="S7" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="18"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -1004,105 +956,45 @@
       <c r="A8" s="23">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="19" t="n">
-        <v>42192.0</v>
-      </c>
-      <c r="R8" s="19" t="n">
-        <v>42375.0</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="17"/>
-      <c r="U8" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="U8" s="15"/>
       <c r="V8" s="15"/>
     </row>
     <row customHeight="1" ht="15.95" r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="14"/>
       <c r="E9" s="5"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="P9" s="5"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="4"/>
@@ -1114,101 +1006,45 @@
       <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="5"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="19" t="n">
-        <v>42611.0</v>
-      </c>
-      <c r="R10" s="19" t="n">
-        <v>42794.0</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="17"/>
-      <c r="U10" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="U10" s="15"/>
       <c r="V10" s="15"/>
     </row>
     <row customHeight="1" ht="15.95" r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="14"/>
       <c r="E11" s="5"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="P11" s="5"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="4"/>

--- a/src/main/resources/testFile2.xlsx
+++ b/src/main/resources/testFile2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsha\Desktop\Projects\Artsakh-Gas\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arshak.askaryan\Desktop\GIT\Artsakh-Gas\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="10035" windowWidth="22995" xWindow="480" yWindow="45"/>
+    <workbookView minimized="1" windowHeight="10035" windowWidth="22995" xWindow="480" yWindow="45"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" r:id="rId1" sheetId="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>Ð/Ð</t>
   </si>
@@ -101,18 +101,12 @@
     <t>²ßË³ï³Ýù³ÛÇÝ  Ï³ï³ñÙ³Ý Ñ³ÝÓÝ³ñ³ñ³Ï³ÝÁ ïí»ó</t>
   </si>
   <si>
-    <t>î»Õ³Ù³ëÇ í³ñå»ïª âÇÉÇÝ·³ñÛ³Ý È¨áÝ</t>
-  </si>
-  <si>
     <t>___________________</t>
   </si>
   <si>
     <t>ëïáñ³·ñáõÃÛáõÝ</t>
   </si>
   <si>
-    <t>ö³Ï³Ý³·áñÍ _________________________________________________________</t>
-  </si>
-  <si>
     <t>ëïáñ³·ñáõÃÛáõÝ , ³ÝáõÝ ³½·³ÝáõÝ</t>
   </si>
   <si>
@@ -143,28 +137,79 @@
     <t xml:space="preserve"> ÷-1</t>
   </si>
   <si>
+    <t>Փականագործ _________________________________________________________</t>
+  </si>
+  <si>
+    <t>Տեղամասի վարպետ՝ Ռոմա Ավշառյան</t>
+  </si>
+  <si>
+    <t>008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ազատամարտիկների 59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Աբրահամյան Աիդա </t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ս - 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01, 02, 03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadsad, asd, asd, </t>
+  </si>
+  <si>
+    <t>004221579</t>
+  </si>
+  <si>
+    <t>փ - 0</t>
+  </si>
+  <si>
+    <t>hhh,asdsad,asdsad,</t>
+  </si>
+  <si>
+    <t>008432</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ալեքսանյան Մայոր   </t>
+  </si>
+  <si>
+    <t>333-888</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>004221342</t>
+  </si>
+  <si>
+    <t>բ1</t>
+  </si>
+  <si>
     <t>008433</t>
   </si>
   <si>
-    <t xml:space="preserve">Ազատամարտիկների 59 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Սևյան Էրիկ </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ս - 0</t>
-  </si>
-  <si>
     <t>004221804</t>
   </si>
   <si>
-    <t>փ - 0</t>
+    <t>Փականագործ`Սուրեն Սարգսյան</t>
   </si>
 </sst>
 </file>
@@ -325,6 +370,12 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -340,12 +391,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -358,36 +403,36 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
@@ -403,9 +448,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
@@ -443,7 +488,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -515,7 +560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -691,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,97 +758,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="D2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row customHeight="1" ht="42" r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="25" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="22" t="s">
-        <v>34</v>
+      <c r="V4" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="18"/>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -818,10 +863,10 @@
         <v>8</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>10</v>
@@ -841,13 +886,13 @@
       <c r="R5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="29"/>
+      <c r="S5" s="28"/>
       <c r="T5" s="18"/>
-      <c r="U5" s="16"/>
+      <c r="U5" s="11"/>
       <c r="V5" s="18"/>
     </row>
     <row customHeight="1" ht="15.95" r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -856,40 +901,42 @@
       <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="19" t="n">
         <v>42611.0</v>
@@ -898,169 +945,289 @@
         <v>42794.0</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="T7" s="18"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="19" t="n">
+        <v>42192.0</v>
+      </c>
+      <c r="R8" s="19" t="n">
+        <v>42375.0</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="T8" s="17"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="U8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="P9" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="4"/>
       <c r="T9" s="18"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="4"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="19" t="n">
+        <v>42611.0</v>
+      </c>
+      <c r="R10" s="19" t="n">
+        <v>42794.0</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="T10" s="17"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
+      <c r="U10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="4"/>
       <c r="T11" s="18"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>4</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1075,16 +1242,16 @@
       <c r="R12" s="19"/>
       <c r="S12" s="4"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1099,18 +1266,18 @@
       <c r="R13" s="20"/>
       <c r="S13" s="4"/>
       <c r="T13" s="18"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>5</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1125,16 +1292,16 @@
       <c r="R14" s="19"/>
       <c r="S14" s="4"/>
       <c r="T14" s="17"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="16"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1149,18 +1316,18 @@
       <c r="R15" s="20"/>
       <c r="S15" s="4"/>
       <c r="T15" s="18"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>6</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1175,16 +1342,16 @@
       <c r="R16" s="19"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1199,18 +1366,18 @@
       <c r="R17" s="20"/>
       <c r="S17" s="4"/>
       <c r="T17" s="18"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>7</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1225,16 +1392,16 @@
       <c r="R18" s="19"/>
       <c r="S18" s="4"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1249,18 +1416,18 @@
       <c r="R19" s="20"/>
       <c r="S19" s="4"/>
       <c r="T19" s="18"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>8</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1275,16 +1442,16 @@
       <c r="R20" s="19"/>
       <c r="S20" s="4"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1299,18 +1466,18 @@
       <c r="R21" s="20"/>
       <c r="S21" s="4"/>
       <c r="T21" s="18"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>9</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1325,16 +1492,16 @@
       <c r="R22" s="19"/>
       <c r="S22" s="4"/>
       <c r="T22" s="17"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1349,18 +1516,18 @@
       <c r="R23" s="20"/>
       <c r="S23" s="4"/>
       <c r="T23" s="18"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>10</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1375,16 +1542,16 @@
       <c r="R24" s="19"/>
       <c r="S24" s="4"/>
       <c r="T24" s="17"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="16"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1399,18 +1566,18 @@
       <c r="R25" s="20"/>
       <c r="S25" s="4"/>
       <c r="T25" s="18"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="29">
         <v>11</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1425,16 +1592,16 @@
       <c r="R26" s="19"/>
       <c r="S26" s="4"/>
       <c r="T26" s="17"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="16"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1449,18 +1616,18 @@
       <c r="R27" s="20"/>
       <c r="S27" s="4"/>
       <c r="T27" s="18"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="A28" s="29">
         <v>12</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1475,16 +1642,16 @@
       <c r="R28" s="19"/>
       <c r="S28" s="4"/>
       <c r="T28" s="17"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="16"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1499,18 +1666,18 @@
       <c r="R29" s="20"/>
       <c r="S29" s="4"/>
       <c r="T29" s="18"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+      <c r="A30" s="29">
         <v>13</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -1525,16 +1692,16 @@
       <c r="R30" s="19"/>
       <c r="S30" s="4"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="16"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1549,18 +1716,18 @@
       <c r="R31" s="20"/>
       <c r="S31" s="4"/>
       <c r="T31" s="18"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="A32" s="29">
         <v>14</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -1575,16 +1742,16 @@
       <c r="R32" s="19"/>
       <c r="S32" s="4"/>
       <c r="T32" s="17"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1599,18 +1766,18 @@
       <c r="R33" s="20"/>
       <c r="S33" s="4"/>
       <c r="T33" s="18"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
     </row>
     <row customHeight="1" ht="15.95" r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+      <c r="A34" s="29">
         <v>15</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -1625,16 +1792,16 @@
       <c r="R34" s="19"/>
       <c r="S34" s="4"/>
       <c r="T34" s="17"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="16"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1649,91 +1816,89 @@
       <c r="R35" s="20"/>
       <c r="S35" s="4"/>
       <c r="T35" s="18"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="10" t="s">
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="T40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E40" s="11" t="s">
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="T40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C43" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="Q43" s="10" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="Q43" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="V14:V15"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -1744,16 +1909,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1763,20 +1918,41 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G4:P4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="T8:T9"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="Q12:Q13"/>
@@ -1784,28 +1960,19 @@
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="V12:V13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="T20:T21"/>
     <mergeCell ref="U20:U21"/>
     <mergeCell ref="V20:V21"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
     <mergeCell ref="T22:T23"/>
     <mergeCell ref="U22:U23"/>
     <mergeCell ref="V22:V23"/>
@@ -1817,15 +1984,11 @@
     <mergeCell ref="U24:U25"/>
     <mergeCell ref="V24:V25"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
     <mergeCell ref="Q34:Q35"/>
     <mergeCell ref="R34:R35"/>
     <mergeCell ref="Q26:Q27"/>
@@ -1833,31 +1996,16 @@
     <mergeCell ref="T26:T27"/>
     <mergeCell ref="U26:U27"/>
     <mergeCell ref="V26:V27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="R28:R29"/>
     <mergeCell ref="T28:T29"/>
     <mergeCell ref="U28:U29"/>
     <mergeCell ref="V28:V29"/>
-    <mergeCell ref="D26:D27"/>
     <mergeCell ref="V32:V33"/>
     <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
     <mergeCell ref="T30:T31"/>
     <mergeCell ref="U30:U31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A42:G42"/>
     <mergeCell ref="C1:S1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="J2:R2"/>
@@ -1867,14 +2015,33 @@
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="N37:S37"/>
     <mergeCell ref="N39:S39"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="T34:T35"/>
     <mergeCell ref="U34:U35"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.35433070866141736" footer="0.31496062992125984" header="0.31496062992125984" left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736"/>

--- a/src/main/resources/testFile2.xlsx
+++ b/src/main/resources/testFile2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Ð/Ð</t>
   </si>
@@ -143,73 +143,46 @@
     <t>Տեղամասի վարպետ՝ Ռոմա Ավշառյան</t>
   </si>
   <si>
-    <t>008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ազատամարտիկների 59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Աբրահամյան Աիդա </t>
+    <t>000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Մաշտոց 1 </t>
+  </si>
+  <si>
+    <t>Mamunts Astghik 12222</t>
+  </si>
+  <si>
+    <t>302-414</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ս - 0</t>
+  </si>
+  <si>
+    <t>9876977</t>
+  </si>
+  <si>
+    <t>փ - 0</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Գրիգորյան Էլվիրա </t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ս - 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01, 02, 03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadsad, asd, asd, </t>
-  </si>
-  <si>
-    <t>004221579</t>
-  </si>
-  <si>
-    <t>փ - 0</t>
-  </si>
-  <si>
-    <t>hhh,asdsad,asdsad,</t>
-  </si>
-  <si>
-    <t>008432</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ալեքսանյան Մայոր   </t>
-  </si>
-  <si>
-    <t>333-888</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>004221342</t>
-  </si>
-  <si>
-    <t>բ1</t>
-  </si>
-  <si>
-    <t>008433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Սևյան Էրիկ </t>
-  </si>
-  <si>
-    <t>004221804</t>
-  </si>
-  <si>
-    <t>Փականագործ`Սուրեն Սարգսյան</t>
+    <t>9866914</t>
+  </si>
+  <si>
+    <t>Փականագործ`Արմեն Փարաջանյան</t>
   </si>
 </sst>
 </file>
@@ -904,10 +877,10 @@
       <c r="D6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="9" t="s">
         <v>44</v>
       </c>
@@ -921,7 +894,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>44</v>
@@ -939,17 +912,15 @@
         <v>46</v>
       </c>
       <c r="Q6" s="19" t="n">
-        <v>42611.0</v>
+        <v>42402.0</v>
       </c>
       <c r="R6" s="19" t="n">
-        <v>42794.0</v>
+        <v>42585.0</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="T6" s="17"/>
       <c r="U6" s="10" t="s">
         <v>44</v>
       </c>
@@ -958,10 +929,10 @@
     <row customHeight="1" ht="15.95" r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5"/>
@@ -992,13 +963,11 @@
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
-      <c r="S7" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="18"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
@@ -1008,40 +977,38 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>44</v>
@@ -1053,27 +1020,27 @@
         <v>46</v>
       </c>
       <c r="Q8" s="19" t="n">
-        <v>42192.0</v>
+        <v>42640.0</v>
       </c>
       <c r="R8" s="19" t="n">
-        <v>42375.0</v>
+        <v>42823.0</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="V8" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
@@ -1082,10 +1049,10 @@
         <v>44</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>44</v>
@@ -1104,7 +1071,7 @@
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
@@ -1117,101 +1084,45 @@
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="5"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="19" t="n">
-        <v>42611.0</v>
-      </c>
-      <c r="R10" s="19" t="n">
-        <v>42794.0</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="17"/>
-      <c r="U10" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="16"/>
       <c r="E11" s="5"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="P11" s="5"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="4"/>
@@ -1871,7 +1782,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>

--- a/src/main/resources/testFile2.xlsx
+++ b/src/main/resources/testFile2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>Ð/Ð</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>9866914</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Վահանյան Գրիգորի </t>
+  </si>
+  <si>
+    <t>9863179</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Հարությունյան Վագիֆ </t>
+  </si>
+  <si>
+    <t>9886599</t>
   </si>
   <si>
     <t>Փականագործ`Արմեն Փարաջանյան</t>
@@ -1084,45 +1102,101 @@
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="4"/>
+      <c r="G10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="19" t="n">
+        <v>42216.0</v>
+      </c>
+      <c r="R10" s="19" t="n">
+        <v>42399.0</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="T10" s="17"/>
-      <c r="U10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="V10" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D11" s="16"/>
       <c r="E11" s="5"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="4"/>
@@ -1134,45 +1208,103 @@
       <c r="A12" s="22">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="4"/>
+      <c r="F12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="19" t="n">
+        <v>42640.0</v>
+      </c>
+      <c r="R12" s="19" t="n">
+        <v>42823.0</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="T12" s="17"/>
-      <c r="U12" s="10"/>
+      <c r="U12" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="V12" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="5"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="P13" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="4"/>
@@ -1782,7 +1914,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>

--- a/src/main/resources/testFile2.xlsx
+++ b/src/main/resources/testFile2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>Ð/Ð</t>
   </si>
@@ -146,13 +146,10 @@
     <t>000001</t>
   </si>
   <si>
-    <t xml:space="preserve">Մաշտոց 1 </t>
-  </si>
-  <si>
-    <t>Mamunts Astghik 12222</t>
-  </si>
-  <si>
-    <t>302-414</t>
+    <t xml:space="preserve">Մաշտոց 1/1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Առուստամյան Արմեն </t>
   </si>
   <si>
     <t/>
@@ -170,37 +167,22 @@
     <t>փ - 0</t>
   </si>
   <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Գրիգորյան Էլվիրա </t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>9866914</t>
-  </si>
-  <si>
-    <t>000003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Վահանյան Գրիգորի </t>
-  </si>
-  <si>
-    <t>9863179</t>
-  </si>
-  <si>
-    <t>000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Հարությունյան Վագիֆ </t>
-  </si>
-  <si>
-    <t>9886599</t>
-  </si>
-  <si>
-    <t>Փականագործ`Արմեն Փարաջանյան</t>
+    <t>000001մ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Մարտունի Սայաթ-Նովա 1/9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Սերգիյան Էդիսոն </t>
+  </si>
+  <si>
+    <t>004259219</t>
+  </si>
+  <si>
+    <t>Տեղամասի վարպետ`Ռոմա  Ավշարյան</t>
+  </si>
+  <si>
+    <t>Փականագործ՝Արայիկ Դանիելյան</t>
   </si>
 </sst>
 </file>
@@ -895,93 +877,87 @@
       <c r="D6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="10"/>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="19" t="n">
-        <v>42402.0</v>
-      </c>
-      <c r="R6" s="19" t="n">
-        <v>42585.0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
       <c r="S6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V6" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5"/>
       <c r="F7" s="11"/>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
@@ -995,101 +971,99 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="K8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="19" t="n">
-        <v>42640.0</v>
+        <v>43134.0</v>
       </c>
       <c r="R8" s="19" t="n">
-        <v>42823.0</v>
+        <v>43317.0</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V8" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
       <c r="F9" s="11"/>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
@@ -1102,101 +1076,45 @@
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="5"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="19" t="n">
-        <v>42216.0</v>
-      </c>
-      <c r="R10" s="19" t="n">
-        <v>42399.0</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="17"/>
-      <c r="U10" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="16"/>
       <c r="E11" s="5"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="P11" s="5"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="4"/>
@@ -1208,103 +1126,45 @@
       <c r="A12" s="22">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="19" t="n">
-        <v>42640.0</v>
-      </c>
-      <c r="R12" s="19" t="n">
-        <v>42823.0</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="U12" s="10"/>
       <c r="V12" s="10"/>
     </row>
     <row customHeight="1" ht="15.95" r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="16"/>
       <c r="E13" s="5"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="4"/>
@@ -1878,7 +1738,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1914,7 +1774,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
